--- a/public/Excel/product.xlsx
+++ b/public/Excel/product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\VueJs\ffafafa\public\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC5CCD8-1B4A-4422-BEA2-6D24C802F20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505A53B7-70BD-4773-BEFF-6C50AC68FB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="4260" windowWidth="16620" windowHeight="5680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Chuối Khô Sấy</t>
   </si>
   <si>
     <t>Táo Sấy</t>
+  </si>
+  <si>
+    <t>Mơ Sấy</t>
+  </si>
+  <si>
+    <t>Nho Sấy</t>
+  </si>
+  <si>
+    <t>Dây Tây Sấy</t>
   </si>
 </sst>
 </file>
@@ -377,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -398,10 +407,10 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="D1">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -413,10 +422,52 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>70000</v>
+      </c>
+      <c r="D2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>80000</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>120000</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>200000</v>
       </c>
-      <c r="D2">
-        <v>50</v>
+      <c r="D5">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/public/Excel/product.xlsx
+++ b/public/Excel/product.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\VueJs\ffafafa\public\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505A53B7-70BD-4773-BEFF-6C50AC68FB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229EDEB7-42F2-46A8-99AF-A6DECBBC8AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Chuối Khô Sấy</t>
   </si>
@@ -46,17 +46,54 @@
   </si>
   <si>
     <t>Dây Tây Sấy</t>
+  </si>
+  <si>
+    <t>Mít Sấy Khô</t>
+  </si>
+  <si>
+    <t>Khoai Lang Sấy</t>
+  </si>
+  <si>
+    <t>Khoai Tây Sấy</t>
+  </si>
+  <si>
+    <t>Sung sấy khô</t>
+  </si>
+  <si>
+    <t>Đào Sấy</t>
+  </si>
+  <si>
+    <t>Lê Sấy Khô</t>
+  </si>
+  <si>
+    <t>Mận Sấy Khô</t>
+  </si>
+  <si>
+    <t>Chuối Sấy Mỹ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,9 +116,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -470,8 +509,121 @@
         <v>150</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>110000</v>
+      </c>
+      <c r="D6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>40000</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>50000</v>
+      </c>
+      <c r="D8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>25000</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>69000</v>
+      </c>
+      <c r="D10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>88000</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>120000</v>
+      </c>
+      <c r="D12">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>110000</v>
+      </c>
+      <c r="D13">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>